--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>LogTime</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t xml:space="preserve">NG is very likely to go up lot before Thursday report comes out, which is expected to be -198 to -210, which is already priced. Try to sell all UGAZ on Wednesday at the meanwhile buy back the 477 DGAZ sold at 4.5 </t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Lessons</t>
+  </si>
+  <si>
+    <t>don't estimate the online trading (after 2:30pm)</t>
+  </si>
+  <si>
+    <t>Good to stick to the trade plan, but sell all UGAZ and bought back DGAZ too early. The trend is obvious (from 8am -930am) but a small dip lure you to act too early. Make 15% a day is good, but you could have made 24%. Need more patience but some being conservative will save your ass in the long run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A great uptrend for NG before the Thursday's report, though the consensus for the report is around -200 but I think this heavily expected report is already priced in during today's trade. Techinically it could reach Monday's gap low at 3.661. Weather is warmer than normal which is not supportive, this could be a bull trap in short term. Hold until 1030 to buy DGAZ when it jump high. One thing to to notice is that, expiration day is coming close, holidays could surpress consumption and today's DGAZ trade volumn is huge, well, UGAZ's trade volum is also huge, something big is going on, be very careful! </t>
   </si>
 </sst>
 </file>
@@ -399,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,10 +425,11 @@
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="139.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="84.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="64.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,26 +445,49 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20161221</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20161221</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>20161221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20161220</v>
       </c>
@@ -464,14 +503,17 @@
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20161213</v>
       </c>
@@ -488,13 +530,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20161212</v>
       </c>
@@ -513,6 +555,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>LogTime</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t xml:space="preserve">A great uptrend for NG before the Thursday's report, though the consensus for the report is around -200 but I think this heavily expected report is already priced in during today's trade. Techinically it could reach Monday's gap low at 3.661. Weather is warmer than normal which is not supportive, this could be a bull trap in short term. Hold until 1030 to buy DGAZ when it jump high. One thing to to notice is that, expiration day is coming close, holidays could surpress consumption and today's DGAZ trade volumn is huge, well, UGAZ's trade volum is also huge, something big is going on, be very careful! </t>
+  </si>
+  <si>
+    <t>Very bad decision buying without knowing the weather could change (turn colder in early Jan) and the fund is not settled. NEVER do it AGAIN! Do not fight the trend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Already under the water and possibly already erased all last week's gain… find a chagne to get out to stop much losses. Two days away from Thursday's report, which could be a small withdraw due to last week's warm weather. If the NG pircce don't pass 3.777, we may have a chance to hold and make profits, becauase that means the turning point of the up-trend </t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -422,30 +428,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="11.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="84.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="64.5546875" customWidth="1"/>
+    <col min="6" max="6" width="64.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -453,103 +460,132 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>20161226</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20161227</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>20161221</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B5" s="3">
         <v>20161221</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>20161221</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>20161220</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B7" s="3">
         <v>20161220</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>20161213</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="3">
         <v>20161214</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>20161212</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C11" s="3">
         <v>20161213</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>LogTime</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t xml:space="preserve">Already under the water and possibly already erased all last week's gain… find a chagne to get out to stop much losses. Two days away from Thursday's report, which could be a small withdraw due to last week's warm weather. If the NG pircce don't pass 3.777, we may have a chance to hold and make profits, becauase that means the turning point of the up-trend </t>
+  </si>
+  <si>
+    <t>20170103-15min and 20170103-1h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be patient to see -10% in NG today! </t>
+  </si>
+  <si>
+    <t>huge gap down following the new year's long weekend, due to warmer than normal weather forecast in mid Jan. The Ng price may swing up a little more likely for a bull trap in the early morning (like now, around 1030am) and then will resume down trend and continue this to tomorrow, the day before the report day, which is expected to be ~-70, quite bearish but it's probabl6y already priced in by now. The next daily susport area is 3.315 -3.341</t>
   </si>
 </sst>
 </file>
@@ -108,13 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -420,9 +426,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -434,25 +440,26 @@
     <col min="4" max="4" width="12.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="84.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="64.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -460,132 +467,171 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>20161226</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C6" s="2">
         <v>20161227</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>20161221</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B8" s="2">
         <v>20161221</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5">
+      <c r="G8" s="1">
         <v>20161221</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>20161220</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B10" s="2">
         <v>20161220</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>20161213</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C12" s="2">
         <v>20161214</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>20161212</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C14" s="2">
         <v>20161213</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>LogTime</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>huge gap down following the new year's long weekend, due to warmer than normal weather forecast in mid Jan. The Ng price may swing up a little more likely for a bull trap in the early morning (like now, around 1030am) and then will resume down trend and continue this to tomorrow, the day before the report day, which is expected to be ~-70, quite bearish but it's probabl6y already priced in by now. The next daily susport area is 3.315 -3.341</t>
+  </si>
+  <si>
+    <t>hold and watch, don't buy or sell before clear signal</t>
+  </si>
+  <si>
+    <t>Not sure it's a great move to sold most of DGAZ today at 4.31 but it's good and conservative move, as there're always plenty of opportunities out there in the market. As for tomorrow the report day, the consensus is ~-72 to -85, but keep in mind that even the weather is now warmer than normal, the inventory is decreasing than last year and five-year average, so even normal or warmer weather will continue to use up gas in storage, thus this should prevent a total collapse in prices. The current support might be seen around $3.1, and the dropping of NG is slowing down, we can see what will happen around $3.1</t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,36 +480,36 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>20170103</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20170103</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>20170104</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20170105</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20170104</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -513,125 +519,164 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>20161226</v>
+        <v>20170103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20161227</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20170103</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>20161226</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20161227</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>20161221</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B11" s="2">
         <v>20161221</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G11" s="1">
         <v>20161221</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>20161220</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B13" s="2">
         <v>20161220</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>20161213</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C15" s="2">
         <v>20161214</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>20161212</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C17" s="2">
         <v>20161213</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>LogTime</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Not sure it's a great move to sold most of DGAZ today at 4.31 but it's good and conservative move, as there're always plenty of opportunities out there in the market. As for tomorrow the report day, the consensus is ~-72 to -85, but keep in mind that even the weather is now warmer than normal, the inventory is decreasing than last year and five-year average, so even normal or warmer weather will continue to use up gas in storage, thus this should prevent a total collapse in prices. The current support might be seen around $3.1, and the dropping of NG is slowing down, we can see what will happen around $3.1</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>The report came out as -49, way less withdraw than the expected -72~-85. This is very bearish but NG quickly when it touched 3.170 and consolidated around 3.20, where we can feel the support. NG ended up a green candle with very bearish report, which simply means the bearish report were well expected and priced in already. But due to warm weather forecast, the NG continues to see presistence around 3.35, what's interesting is that NG continues to rebound after the outcry 14:30 but quickly drew back after. It's also interesting to notice the volume for DGAZ is relatively small while the volume of UGAZ is larger than normal, I have a strong feeling this could be a profit taking for NG shot and day trade opportunity to buy UGAZ tomorrow (or even hold over the weekend)</t>
   </si>
 </sst>
 </file>
@@ -432,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,36 +486,32 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+    <row r="3" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>20170105</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>20170104</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>20170105</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2">
-        <v>20170104</v>
-      </c>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -519,27 +521,27 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20170105</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G6" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -550,33 +552,35 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C8" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -584,29 +588,29 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B11" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20161227</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1">
-        <v>20161221</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
@@ -614,24 +618,27 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B13" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G13" s="1">
+        <v>20161221</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -642,19 +649,22 @@
     </row>
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -665,18 +675,41 @@
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>20161212</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C19" s="2">
         <v>20161213</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>LogTime</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>The report came out as -49, way less withdraw than the expected -72~-85. This is very bearish but NG quickly when it touched 3.170 and consolidated around 3.20, where we can feel the support. NG ended up a green candle with very bearish report, which simply means the bearish report were well expected and priced in already. But due to warm weather forecast, the NG continues to see presistence around 3.35, what's interesting is that NG continues to rebound after the outcry 14:30 but quickly drew back after. It's also interesting to notice the volume for DGAZ is relatively small while the volume of UGAZ is larger than normal, I have a strong feeling this could be a profit taking for NG shot and day trade opportunity to buy UGAZ tomorrow (or even hold over the weekend)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even though now this is weather-controleld market for NG, but 5 consective selling (with a huge gap down on Sunday opening) will very much lead to a profit taking or huge rebound, especially with a little bit help of weather change. Try to sell DGAZ tomorrow at the first NG dip and get some UGAZ for day-trading or hold until next week </t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,8 +453,8 @@
     <col min="2" max="2" width="11.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="84.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="64.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="95.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="55.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -486,7 +489,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20170105</v>
       </c>
@@ -502,8 +505,12 @@
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20170105</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
@@ -513,67 +520,67 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>20170104</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C5" s="2">
         <v>20170105</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G5" s="2">
         <v>20170104</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>20170103</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C7" s="1">
         <v>20170103</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -583,133 +590,125 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>20161226</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>20161227</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>20161221</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20161221</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20161221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>20161220</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>20161212</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C18" s="2">
+        <v>20161213</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B13" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1">
-        <v>20161221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>20161220</v>
-      </c>
-      <c r="B15" s="2">
-        <v>20161220</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>20161212</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20161213</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>LogTime</t>
   </si>
@@ -97,6 +97,23 @@
   </si>
   <si>
     <t xml:space="preserve">Even though now this is weather-controleld market for NG, but 5 consective selling (with a huge gap down on Sunday opening) will very much lead to a profit taking or huge rebound, especially with a little bit help of weather change. Try to sell DGAZ tomorrow at the first NG dip and get some UGAZ for day-trading or hold until next week </t>
+  </si>
+  <si>
+    <t>1. if you found youeself missed today's high and want to sell, wait or sell the previous high, it will come back 
+2. you will have enough time to buy at the bottom, don't guess a low and buy it
+3. A rally failure will lead to bears control 
+4. Down on Monday and Tuesday, with a promising Thursday report, sell on Wednesday or 
+ Thursday when it soars and then buy them back on Friday
+5. A hugh rally (typically on Wed) before a bullish-expected report on Thursday, may
+ lead to profit taking after Thursday's release
+6. You are currently not a good trader, so don't be greedy! 
+7. At the end of May or beginning of June, EIA may adjusted its estimation of gas supply and demand, which lead to the change to storage
+通常有人跟我说，你看我要是牛市赚一点就跑呢？那我就会反问大家，你究竟要赚多点才跑？是否保证永不回来？这些人通常会很沉么，这其实是一个典型的赔钱思维，也是人性的体现。大家炒股的时候往往是牛市，而牛市里任何一次买入都是正确的，任何一次卖出都是错误的，那种说要小赚就走的人，往往会懊悔不已，会在加仓杀回，直到满仓被套。最后是牛市里不断小赚，但熊市里全都回去了。这就是止盈不止损，是最要命，最亏钱的一种做法。而反人性的操作才是正确的，也就是止损不止盈，牛市里持股抱股不放，将盈利放到最大。熊市来了，不管亏损与否坚决离场。
+所以股票越炒战绩越糟糕，并不是您的错，只是市场变化了，而您没有做出适时的调整。所谓居安思危，在得意的时候有几个人会想到学习止损呢？这就是人性，而炒股票，最大的敌人不是市场、不是对手，恰恰是每个人的人性！这就是为何正常思维的人，很难战胜市场的原因。
+最后说句名言，请记住，买入股票的唯一理由，是他未来能够上涨，跟你之前是否亏损赚钱没关系。卖出股票的唯一理由，是他未来要下跌，跟你是否被套也没有任何关系。切记</t>
+  </si>
+  <si>
+    <t>Several fake rallies today looks like a bull trape, trying to lure bulls in. But there's still big pressure around 3.330. NG price is moving slowly within a very narror interval, 3.265~3.330. Weather is still very warm, next Sunday could be gap down again, which will provide a perfect opportunity to bug UGAZ. Pay attention to the volume of DGAZ and UGAZ this a few days, the pattern of UGAZ volume is very similiar to the volumn of DGAZ 5 days ago (starting last Thursday and Friday), which could indicate a low on Monday and then surge!</t>
   </si>
 </sst>
 </file>
@@ -132,13 +149,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,35 +508,29 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>20170105</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
         <v>20170106</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2">
-        <v>20170105</v>
-      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
@@ -520,27 +540,27 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>20170104</v>
+        <v>20170105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2">
         <v>20170105</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2">
-        <v>20170104</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -551,27 +571,27 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20170105</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -582,33 +602,35 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D10" s="2" t="s">
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C9" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -616,29 +638,29 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B12" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20161227</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1">
-        <v>20161221</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -646,24 +668,27 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B14" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>20161221</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -672,21 +697,24 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B16" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -695,20 +723,43 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>20161212</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C20" s="2">
         <v>20161213</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -720,12 +771,540 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>LogTime</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Several fake rallies today looks like a bull trape, trying to lure bulls in. But there's still big pressure around 3.330. NG price is moving slowly within a very narror interval, 3.265~3.330. Weather is still very warm, next Sunday could be gap down again, which will provide a perfect opportunity to bug UGAZ. Pay attention to the volume of DGAZ and UGAZ this a few days, the pattern of UGAZ volume is very similiar to the volumn of DGAZ 5 days ago (starting last Thursday and Friday), which could indicate a low on Monday and then surge!</t>
+  </si>
+  <si>
+    <t>UGAZ's volume could indicate a big surge/revenge next week</t>
   </si>
 </sst>
 </file>
@@ -469,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,8 +532,12 @@
       <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3">
+        <v>20170106</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -116,7 +116,7 @@
     <t>Several fake rallies today looks like a bull trape, trying to lure bulls in. But there's still big pressure around 3.330. NG price is moving slowly within a very narror interval, 3.265~3.330. Weather is still very warm, next Sunday could be gap down again, which will provide a perfect opportunity to bug UGAZ. Pay attention to the volume of DGAZ and UGAZ this a few days, the pattern of UGAZ volume is very similiar to the volumn of DGAZ 5 days ago (starting last Thursday and Friday), which could indicate a low on Monday and then surge!</t>
   </si>
   <si>
-    <t>UGAZ's volume could indicate a big surge/revenge next week</t>
+    <t>UGAZ's volume could indicate a big surge/revenge next week. The previous low 26.79 could be a good buy-in point, or the two previous gap higes at 25.34 and 23.69</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,7 +675,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>20161221</v>
       </c>

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>LogTime</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>UGAZ's volume could indicate a big surge/revenge next week. The previous low 26.79 could be a good buy-in point, or the two previous gap higes at 25.34 and 23.69</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slightly gap down for like 10 cents at 6pm, but the weather is even warmer after the weekend. There're some suspicous theories that the last report was wrong (because the withdrew was too small) and there will be a correction this coming Thurday. Also, another theory is wandering around about the weather forecast, is about to turn cold soon. People on the forum are saying the temperature is actually lower these days than forecasted. The trading plan for tomorrow might be sell DGAZ and find good point to buy in UGAZ and hold (better in the morning). </t>
   </si>
 </sst>
 </file>
@@ -152,10 +158,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -470,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,63 +520,61 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <v>20170108</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <v>20170109</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
+        <v>20170108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>20170106</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G5" s="3">
         <v>20170106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>20170105</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>20170106</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2">
-        <v>20170105</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -578,27 +585,27 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>20170104</v>
+        <v>20170105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2">
         <v>20170105</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="2">
-        <v>20170104</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -609,27 +616,27 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20170105</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G9" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -640,33 +647,35 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C11" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -674,29 +683,29 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B14" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20161227</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1">
-        <v>20161221</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -704,69 +713,98 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B16" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1">
+        <v>20161221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>20161212</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C22" s="2">
         <v>20161213</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -787,526 +825,526 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -158,10 +158,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,92 +523,77 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>20170108</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4">
-        <v>20170109</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
-        <v>20170108</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>20170108</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20170109</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>20170108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>20170106</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G7" s="3">
         <v>20170106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>20170105</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20170106</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2">
-        <v>20170105</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -616,27 +604,27 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>20170104</v>
+        <v>20170105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2">
         <v>20170105</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="2">
-        <v>20170104</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -647,27 +635,27 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20170105</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G11" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -678,33 +666,35 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D14" s="2" t="s">
+    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C13" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -712,99 +702,128 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B16" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20161227</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1">
-        <v>20161221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B18" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20161221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B20" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B20" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>20161212</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C24" s="2">
         <v>20161213</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -825,526 +844,526 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>LogTime</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t xml:space="preserve">Slightly gap down for like 10 cents at 6pm, but the weather is even warmer after the weekend. There're some suspicous theories that the last report was wrong (because the withdrew was too small) and there will be a correction this coming Thurday. Also, another theory is wandering around about the weather forecast, is about to turn cold soon. People on the forum are saying the temperature is actually lower these days than forecasted. The trading plan for tomorrow might be sell DGAZ and find good point to buy in UGAZ and hold (better in the morning). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG had a big drop on Monday but met strong support at 3.103, only posted one 1-hour green candle the whole day before 4pm. The weather forecast is still warm (but speculaters are saying Canada's code air will travel south), with the huge UGAZ trading volume, the NG keep rising over the night trading hours, and rised around 6% on Tuesday and totally shadow Monday's red candle. With this trend, the NG prices will very likely to keep going again tomorrow on Wednesday, especially expectin a big withdraw for Thursday's report. Still not sure Tuesday's surge was due to anticipation of weather chagne or more from the profit taking/short recovering angle, but it's probably conservative to sell some UGAZ to lock some profit. Or wait for the price to top, sell and buy back. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be more patient on buying UGAZ while NG price is reducing during the course of day. It is good to get in when having a strong feeling the trend will probably reverse, telling by the UGAZ trading volume, but patience will pay off if wait longer, there will be better enter prices. Normally, a big bottom will give you enough time to enter, because it's big! </t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,13 +536,28 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>20170110</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>20170111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="5">
+        <v>20170109</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>LogTime</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t xml:space="preserve">Should be more patient on buying UGAZ while NG price is reducing during the course of day. It is good to get in when having a strong feeling the trend will probably reverse, telling by the UGAZ trading volume, but patience will pay off if wait longer, there will be better enter prices. Normally, a big bottom will give you enough time to enter, because it's big! </t>
+  </si>
+  <si>
+    <t>20170110-NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The NG trading volume for Tuesday 20170110 is relatively very large, compared to two weeks ago on the first day of 2017 when NG surges for 10% in one day. This may indicates there're big different opinions on the NG prices right, given the weather forecast is really warm for the next three weeks. But, it's still winter and the comsuption is still big, tomorrow Wednesday might post a small green candle, but it should have some swings to take advantage of, pay close attention to it! </t>
+  </si>
+  <si>
+    <t>Good to do nothing today, be patient and you will harvest more</t>
   </si>
 </sst>
 </file>
@@ -164,10 +173,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -488,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,123 +541,123 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>20170111</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>20170111</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>20170110</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C5" s="5">
         <v>20170111</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G5" s="5">
         <v>20170109</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>20170108</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4">
-        <v>20170109</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>20170108</v>
-      </c>
-    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <v>20170108</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20170109</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>20170108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>20170106</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G9" s="3">
         <v>20170106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>20170105</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>20170106</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="2">
-        <v>20170105</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -656,27 +668,27 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>20170104</v>
+        <v>20170105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2">
         <v>20170105</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="2">
-        <v>20170104</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -687,27 +699,27 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20170105</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G13" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -718,33 +730,35 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C15" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -752,29 +766,29 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B18" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20161227</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1">
-        <v>20161221</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
@@ -782,24 +796,27 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B20" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G20" s="1">
+        <v>20161221</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -810,19 +827,22 @@
     </row>
     <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -833,18 +853,41 @@
     </row>
     <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>20161212</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C26" s="2">
         <v>20161213</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -865,526 +908,526 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>LogTime</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Good to do nothing today, be patient and you will harvest more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should realize the strong resistence around 3.330 and sell and lock some profit in the morning, while we can always buy back at the dip. Try it next time! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After yesterday's 6% surge, the NG was not able to break 3.33 in the morning, with weather forecast in the morning still calls the nationawide warmer than normal temp. It's been weak the whole course of day but after 2:30pm the NG prices starts climbing pretty steady, which made UGAZ end up with gaining 25 cents. As we can see during the night's online trade, NG is still going as weather turn colder in the northwest in 8-14 days, tomorrow's report is repected be around -140 but people are expecting to see over -200 due to 222 HDD in the previous week, highest of the year. Strategy is hold and wait until at least Friday to lock profit </t>
   </si>
 </sst>
 </file>
@@ -173,10 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -500,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,154 +550,154 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>20170111</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
+        <v>20170112</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="7">
         <v>20170111</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>20170111</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C5" s="6">
+        <v>20170111</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>20170110</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C7" s="5">
         <v>20170111</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G7" s="5">
         <v>20170109</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>20170108</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20170109</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>20170108</v>
-      </c>
-    </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <v>20170108</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20170109</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>20170108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>20170106</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G11" s="3">
         <v>20170106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>20170105</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20170106</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="2">
-        <v>20170105</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -699,27 +708,27 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>20170104</v>
+        <v>20170105</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2">
         <v>20170105</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="2">
-        <v>20170104</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -730,27 +739,27 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20170105</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G15" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -761,33 +770,35 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D18" s="2" t="s">
+    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C17" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -795,29 +806,29 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B20" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20161227</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1">
-        <v>20161221</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
@@ -825,24 +836,27 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B22" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20161221</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -853,19 +867,22 @@
     </row>
     <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B24" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B24" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -876,18 +893,41 @@
     </row>
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>20161212</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C28" s="2">
         <v>20161213</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -908,526 +948,526 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>LogTime</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t xml:space="preserve">After yesterday's 6% surge, the NG was not able to break 3.33 in the morning, with weather forecast in the morning still calls the nationawide warmer than normal temp. It's been weak the whole course of day but after 2:30pm the NG prices starts climbing pretty steady, which made UGAZ end up with gaining 25 cents. As we can see during the night's online trade, NG is still going as weather turn colder in the northwest in 8-14 days, tomorrow's report is repected be around -140 but people are expecting to see over -200 due to 222 HDD in the previous week, highest of the year. Strategy is hold and wait until at least Friday to lock profit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thursday </t>
+  </si>
+  <si>
+    <t>Today the EIA report is -151, which is a little bit large than the expected -141, NG jumps higher with resistence around 3.43. The weather forecast says it will turn colder at the end of Jan, but so far the northeast remain warmer, thus will hold the price rise too quickly! Tomorrow is Friday and right before a long weekend, the weather forecast can chagne again at next Monday opening, but it is conserverive to sell ALL UGAZ tomorrow when it jumps higher to lock the profit. It's already pretty good within a week</t>
+  </si>
+  <si>
+    <t>The uptrend of NG price is quite obvious now, but we can tell the rising of the price is a little bit hesitate. Try to make a few day trades, sell at highs and buy back</t>
   </si>
 </sst>
 </file>
@@ -179,10 +188,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -509,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -550,185 +562,185 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <v>20170112</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8">
+        <v>20170113</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="8">
+        <v>20170112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>20170111</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C5" s="7">
         <v>20170112</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G5" s="7">
         <v>20170111</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>20170111</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C7" s="6">
         <v>20170111</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>20170110</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C9" s="5">
         <v>20170111</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G9" s="5">
         <v>20170109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>20170108</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4">
-        <v>20170109</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>20170108</v>
-      </c>
-    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <v>20170108</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4">
+        <v>20170109</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>20170108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>20170106</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G13" s="3">
         <v>20170106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>20170105</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20170106</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="2">
-        <v>20170105</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -739,27 +751,27 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>20170104</v>
+        <v>20170105</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2">
         <v>20170105</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="2">
-        <v>20170104</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -770,27 +782,27 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20170105</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G17" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -801,33 +813,35 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D20" s="2" t="s">
+    <row r="19" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C19" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -835,29 +849,29 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B22" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20161227</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1">
-        <v>20161221</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
@@ -865,24 +879,27 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B24" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G24" s="1">
+        <v>20161221</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -893,19 +910,22 @@
     </row>
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B26" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B26" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -916,18 +936,41 @@
     </row>
     <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>20161212</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C30" s="2">
         <v>20161213</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -948,526 +991,526 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -155,10 +155,10 @@
     <t>The uptrend of NG price is quite obvious now, but we can tell the rising of the price is a little bit hesitate. Try to make a few day trades, sell at highs and buy back</t>
   </si>
   <si>
-    <t xml:space="preserve">Due to the weather in 6-10 and 8-14 of NOAA still shows warmer than normal thus gap down to 3.000 at Sunday 6pm opening. I expect this to test 3.270-3.280 tomorrow and plan to buy ugaz around 28.5 to 29, half position. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Glad didn't bought ugaz at 29 last Friday since I may got caught under the water tomorrow. You can afford to miss a few opportunities since the market is always full of opportunities, but you can't affort too many mistakes. Be conservative! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to the weather in 6-10 and 8-14 of NOAA still shows warmer than normal thus gap down to 3.000 at Sunday 6pm opening. I expect NG to test 3.270-3.280 tomorrow and plan to buy ugaz around 28.5 to 29, half position. I would buy about half position (only for short terms) when NG comes down to 3.28-3.29, or get clsoer to 3.27 or even dip below 3.27, and if NG continues to go down, wait for 3.17-3.20 to enter full position of UGAZ). Early weekly storage report calls for -60~-70 withdraw by COB last Friday, according to analysts, this is by no means bearch number (or might be priced in during tomorrow's session) , it is said and I quote here "Power demand remains strong, export activity has been robust and production continues to show limited response to the recent upswing in the rig counts. All of these factors will be supportive for natural gas in the future". -Good Luck! </t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20170128</v>
       </c>
@@ -592,10 +592,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="G3" s="9">
         <v>20170129</v>
@@ -725,7 +725,7 @@
         <v>20170109</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -733,7 +733,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20170108</v>
       </c>

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>LogTime</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t xml:space="preserve">Due to the weather in 6-10 and 8-14 of NOAA still shows warmer than normal thus gap down to 3.000 at Sunday 6pm opening. I expect NG to test 3.270-3.280 tomorrow and plan to buy ugaz around 28.5 to 29, half position. I would buy about half position (only for short terms) when NG comes down to 3.28-3.29, or get clsoer to 3.27 or even dip below 3.27, and if NG continues to go down, wait for 3.17-3.20 to enter full position of UGAZ). Early weekly storage report calls for -60~-70 withdraw by COB last Friday, according to analysts, this is by no means bearch number (or might be priced in during tomorrow's session) , it is said and I quote here "Power demand remains strong, export activity has been robust and production continues to show limited response to the recent upswing in the rig counts. All of these factors will be supportive for natural gas in the future". -Good Luck! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG just experienced one side selling during the course of today, due to Sunday's gap dow opening (negative momentum) plus warmer weather forcast. NG's price seems to met some resistance around 3.25-3.26, and quite strong support around 3.230. However, during after hours trading in the night, EU and Asian trader push it down to 3.2 level, testing the next strong support around 3.170-3.190. Something to notice: 1. NG future volume today is smaller than yesterday and the day before, which may indicate the continue selling tomorrow, AKA, today's not the bottom. 2. Volume of UGAZ is much larger than average and yesterday, while DGAZ volume is a little bit smaller than yesterday and average, may indicate we are not far away from a bottome. Considering NG price now is near the strong support 3.17-3.19, a short term techinical rebound is expected. For tomorrow's trade, we should enter for the rest half position of UGAZ, when NG hits 3.19 or a little bit below.  Pay extra attention to the speed, an exhuasted selling will indicate a nearer bottom.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the resistance could be observed earlier, we should stick to this morning decision, which was buying half position of UGAZ at 27.3, while 27.55 is not too bad. The point here is that, NG can't just drop too much, with strong power demand, robust export and limited prouction growth, and especially current gas storage is at the lower range of 5 years interval. Get a good enter point for the other half of UGAZ, good luch! </t>
   </si>
 </sst>
 </file>
@@ -194,10 +203,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -530,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,247 +583,247 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>20170130</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="10">
+        <v>20170131</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="10">
+        <v>20170130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>20170128</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C5" s="9">
         <v>20170130</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G5" s="9">
         <v>20170129</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>20170112</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C7" s="8">
         <v>20170113</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G7" s="8">
         <v>20170112</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="86.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="86.45" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>20170111</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C9" s="7">
         <v>20170112</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G9" s="7">
         <v>20170111</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>20170111</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C11" s="6">
         <v>20170111</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="100.9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="100.9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>20170110</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C13" s="5">
         <v>20170111</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G13" s="5">
         <v>20170109</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>20170108</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4">
-        <v>20170109</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4">
-        <v>20170108</v>
-      </c>
-    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <v>20170108</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="4">
+        <v>20170109</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>20170108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>20170106</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G17" s="3">
         <v>20170106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>20170105</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20170106</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="2">
-        <v>20170105</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -822,27 +834,27 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>20170104</v>
+        <v>20170105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="2">
         <v>20170105</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="2">
-        <v>20170104</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -853,27 +865,27 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20170105</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G21" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,33 +896,35 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D24" s="2" t="s">
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C23" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -918,29 +932,29 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B26" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2">
+        <v>20161227</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1">
-        <v>20161221</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
@@ -948,24 +962,27 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B28" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G28" s="1">
+        <v>20161221</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -976,19 +993,22 @@
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B30" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B30" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -999,18 +1019,41 @@
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>20161212</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C34" s="2">
         <v>20161213</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1031,526 +1074,526 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>LogTime</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t xml:space="preserve">If the resistance could be observed earlier, we should stick to this morning decision, which was buying half position of UGAZ at 27.3, while 27.55 is not too bad. The point here is that, NG can't just drop too much, with strong power demand, robust export and limited prouction growth, and especially current gas storage is at the lower range of 5 years interval. Get a good enter point for the other half of UGAZ, good luch! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weather forefast continues to be very bearish for NG as we won't see too much cold weather before Feb 15th. NG price took out an important support of 3.17 and now get closer to 3.10, I personally this NG could hold above and 3.10 with small rebounce while waiting for any potential bullish news (eg. low production level, high export and weather switches etc), but any rallies could be sold off. Try to get an opportunity to sell 515 UGAZ bought at 24.99 aroun 25.5 or above, wait to reenter at lower prices. A good sign is that, the volume of UGAZ is huge while that of DGAZ is quite small, a profit taking/short recover could give out some opportunites to free those UGAZ bought at 24.99. </t>
+  </si>
+  <si>
+    <t>Since NG dropped below 3.17 overnight and in the pre-market hours, it is too impatient to buy the rest of UGAZ at 24.99 （ could then lower than 24.50). Patience is very important especially we no longer have the time and stare at the 15min trading all day! We will very likely to get a rebound and then go down back to 3.1 again. It's another opportunity to grasp, be patient and not greedy</t>
   </si>
 </sst>
 </file>
@@ -203,10 +209,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -542,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -583,278 +592,278 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>20170131</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11">
+        <v>20170201</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="11">
+        <v>20170131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>20170130</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C5" s="10">
         <v>20170131</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G5" s="10">
         <v>20170130</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>20170128</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C7" s="9">
         <v>20170130</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G7" s="9">
         <v>20170129</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>20170112</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C9" s="8">
         <v>20170113</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G9" s="8">
         <v>20170112</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="86.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="86.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>20170111</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C11" s="7">
         <v>20170112</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G11" s="7">
         <v>20170111</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>20170111</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C13" s="6">
         <v>20170111</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="100.9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>20170110</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C15" s="5">
         <v>20170111</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G15" s="5">
         <v>20170109</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>20170108</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4">
-        <v>20170109</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <v>20170108</v>
-      </c>
-    </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <v>20170108</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4">
+        <v>20170109</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <v>20170108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>20170106</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G19" s="3">
         <v>20170106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>20170105</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20170106</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="2">
-        <v>20170105</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -865,27 +874,27 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20170104</v>
+        <v>20170105</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2">
         <v>20170105</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="2">
-        <v>20170104</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -896,27 +905,27 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <v>20170105</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G23" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -927,33 +936,35 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D26" s="2" t="s">
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C25" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -961,29 +972,29 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B28" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2">
+        <v>20161227</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1">
-        <v>20161221</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
@@ -991,24 +1002,27 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B30" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G30" s="1">
+        <v>20161221</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1019,19 +1033,22 @@
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B32" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B32" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1042,18 +1059,41 @@
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>20161212</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C36" s="2">
         <v>20161213</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1074,526 +1114,526 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -176,10 +176,10 @@
     <t>Since NG dropped below 3.17 overnight and in the pre-market hours, it is too impatient to buy the rest of UGAZ at 24.99 （ could then lower than 24.50). Patience is very important especially we no longer have the time and stare at the 15min trading all day! We will very likely to get a rebound and then go down back to 3.1 again. It's another opportunity to grasp, be patient and not greedy</t>
   </si>
   <si>
-    <t xml:space="preserve">Weather is still warm for most of US continent, but today's forcast shows a little cold coming in from northeast and great lakes areas. Today small rally were more likely due to short covering, small profit taking by bears since the volume of NG, DGAZ and UGAZ are all relatively quite small. Euro and Asan trades push NG price above 3.22, the previous support, over the night but it was quickly sold back to under 3.170 before US markets opens. Each little rallies that touched 3.170 were sold out and bounced back at 3.15, a very narrow swing interval. Tomorrow's export is expect to be -82, smaller than 5 year average and last week.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Good to sell the 515 UGAZ at 25.75 that was bought at 24.99. For loss of 400 UGAZ bought at 27.55 but sold at 25.9, there should some opportunies to buy back under 25.2 before the report came out. Take it. Hold the rest fund after the report came out. Eventually it would go up anyways, take it and hold over the weekend. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weather is still warm for most of US continent, but today's forcast shows a little cold coming in from northeast and great lakes areas. Today small rally were more likely due to short covering, small profit taking by bears since the volume of NG, DGAZ and UGAZ are all relatively quite small. Euro and Asan trades push NG price above 3.22, the previous support, over the night but it was quickly sold back to under 3.170 before US markets opens. Each little rallies that touched 3.170 were sold out and bounced back at 3.15, a very narrow swing interval. Tomorrow's export is expect to be -82, smaller than 5 year average and last week.  The price could seriouly test or even break down 3.10 tomorrow before or after the report, leave half position and prepare for it. </t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20170201</v>
       </c>
@@ -622,10 +622,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="G3" s="12">
         <v>20170202</v>

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>LogTime</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t xml:space="preserve">Weather is still warm for most of US continent, but today's forcast shows a little cold coming in from northeast and great lakes areas. Today small rally were more likely due to short covering, small profit taking by bears since the volume of NG, DGAZ and UGAZ are all relatively quite small. Euro and Asan trades push NG price above 3.22, the previous support, over the night but it was quickly sold back to under 3.170 before US markets opens. Each little rallies that touched 3.170 were sold out and bounced back at 3.15, a very narrow swing interval. Tomorrow's export is expect to be -82, smaller than 5 year average and last week.  The price could seriouly test or even break down 3.10 tomorrow before or after the report, leave half position and prepare for it. </t>
+  </si>
+  <si>
+    <t>Good but not too perfect trading today, take some opportunities tomorrow and try to sell 532 UGAZ tomorrow at 26.5 or above, lock some profits and hold cash over the weekend, though it should be OK to hold half position over the weekend. It's decided by tomorrow trade and volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG rise away or rebounced from 3.110 - 3.119 level in the early trading and jumped higher to break 3.170. But we still see some resistance at 3.200 and NG failed to break through twice! Weather continues to be really bearish for NG, but a little more rally to 3.25 is expected given today's little momentum and slightly bullish report. EIA gave -87 which is a little more than the consensus -82.  Low production, high export and speculation of cold waether are the only three things left to support NG not falling below 3.110. If weather is not changing to cold over the weekend, we will probably test 3.000-2.990 next Monday. </t>
   </si>
 </sst>
 </file>
@@ -215,10 +221,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -560,18 +569,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="95.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="55.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="1"/>
@@ -601,340 +610,340 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>20170202</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13">
+        <v>20170203</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="13">
+        <v>20170203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>20170201</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C5" s="12">
         <v>20170202</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G5" s="12">
         <v>20170202</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>20170131</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C7" s="11">
         <v>20170201</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G7" s="11">
         <v>20170131</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>20170130</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C9" s="10">
         <v>20170131</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G9" s="10">
         <v>20170130</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>20170128</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C11" s="9">
         <v>20170130</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G11" s="9">
         <v>20170129</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>20170112</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C13" s="8">
         <v>20170113</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G13" s="8">
         <v>20170112</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>20170111</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C15" s="7">
         <v>20170112</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G15" s="7">
         <v>20170111</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>20170111</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C17" s="6">
         <v>20170111</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>20170110</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C19" s="5">
         <v>20170111</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G19" s="5">
         <v>20170109</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>20170108</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4">
-        <v>20170109</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <v>20170108</v>
-      </c>
-    </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>20170108</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4">
+        <v>20170109</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
+        <v>20170108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>20170106</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G23" s="3">
         <v>20170106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>20170105</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2">
-        <v>20170106</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="2">
-        <v>20170105</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -945,27 +954,27 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>20170104</v>
+        <v>20170105</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="2">
         <v>20170105</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="2">
-        <v>20170104</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -976,27 +985,27 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C27" s="2">
+        <v>20170105</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G27" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1007,33 +1016,35 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D30" s="2" t="s">
+    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C29" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1041,99 +1052,128 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B32" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2">
+        <v>20161227</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="1">
-        <v>20161221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B34" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1">
+        <v>20161221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B36" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B36" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>20161212</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C40" s="2">
         <v>20161213</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1154,526 +1194,526 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>LogTime</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t xml:space="preserve">NG rise away or rebounced from 3.110 - 3.119 level in the early trading and jumped higher to break 3.170. But we still see some resistance at 3.200 and NG failed to break through twice! Weather continues to be really bearish for NG, but a little more rally to 3.25 is expected given today's little momentum and slightly bullish report. EIA gave -87 which is a little more than the consensus -82.  Low production, high export and speculation of cold waether are the only three things left to support NG not falling below 3.110. If weather is not changing to cold over the weekend, we will probably test 3.000-2.990 next Monday. </t>
+  </si>
+  <si>
+    <t>Weather is still very warm and becoming less and less an important factor as we are towards the end of this winter. NG price is testing 3.000. A techical short recoving is probably on the way and try to prepare for that chance to unload all the UGAZ at a non-negative price. We should quickly admit the reality of the market since the market is aways true. And the production and exporting are becoming two more important factors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respect the market and it's always true. Try to reduce the frequency of trading, this time, I got caught up during the night tradings. A big lesson! </t>
   </si>
 </sst>
 </file>
@@ -221,10 +227,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -569,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,371 +619,371 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>20170206</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="14">
+        <v>20170207</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="14">
+        <v>20170206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>20170202</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C5" s="13">
         <v>20170203</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G5" s="13">
         <v>20170203</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>20170201</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C7" s="12">
         <v>20170202</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G7" s="12">
         <v>20170202</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>20170131</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C9" s="11">
         <v>20170201</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G9" s="11">
         <v>20170131</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>20170130</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C11" s="10">
         <v>20170131</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G11" s="10">
         <v>20170130</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>20170128</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C13" s="9">
         <v>20170130</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G13" s="9">
         <v>20170129</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>20170112</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C15" s="8">
         <v>20170113</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G15" s="8">
         <v>20170112</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>20170111</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C17" s="7">
         <v>20170112</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G17" s="7">
         <v>20170111</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>20170111</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C19" s="6">
         <v>20170111</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>20170110</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C21" s="5">
         <v>20170111</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G21" s="5">
         <v>20170109</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20170108</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4">
-        <v>20170109</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
-        <v>20170108</v>
-      </c>
-    </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>20170108</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4">
+        <v>20170109</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>20170108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>20170106</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G25" s="3">
         <v>20170106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>20170105</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2">
-        <v>20170106</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="2">
-        <v>20170105</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -985,27 +994,27 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>20170104</v>
+        <v>20170105</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="2">
         <v>20170105</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="2">
-        <v>20170104</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1016,27 +1025,27 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20170105</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G29" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1047,33 +1056,35 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D32" s="2" t="s">
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C31" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1081,29 +1092,29 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B34" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2">
+        <v>20161227</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="1">
-        <v>20161221</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
@@ -1111,24 +1122,27 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B36" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G36" s="1">
+        <v>20161221</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1139,19 +1153,22 @@
     </row>
     <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B38" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B38" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1162,18 +1179,41 @@
     </row>
     <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>20161212</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C42" s="2">
         <v>20161213</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1194,526 +1234,526 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>LogTime</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t xml:space="preserve">respect the market and it's always true. Try to reduce the frequency of trading, this time, I got caught up during the night tradings. A big lesson! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG is down and down due to the continuous warm weather. NG price is close to the gap posted on Nov 18 where the Gap High was 2.852. There seems to be some resistance at 3.000, a key point to watch is 3.080, which could be a pivot to turn the short term trend up for a few days. Tomorrow's report is expected to show a -127 withdraw, while I personally I think the number could be larger than that, due to the northeast experenced a cold blast for a few days last week. In short term, the price could go high in the early trading day and retreat back, this should provide some opportunities to sell&amp;buy back.  </t>
+  </si>
+  <si>
+    <t>The trading plan stopped for a few days, nothing to follow or stick to, a expensive lesson. Now we are at around -15%, given recent warm weather, it's probably good to take advanate of volite to sell on highs and but back at lows, try to limit some losses. Winter is not done yet! 10-15 day forecast shows some cold air coming from the north. Hang in there.</t>
   </si>
 </sst>
 </file>
@@ -227,10 +233,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -578,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,402 +628,402 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>20170215</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15">
+        <v>20170216</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="15">
+        <v>20170215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>20170206</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C5" s="14">
         <v>20170207</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G5" s="14">
         <v>20170206</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>20170202</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C7" s="13">
         <v>20170203</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G7" s="13">
         <v>20170203</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>20170201</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C9" s="12">
         <v>20170202</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G9" s="12">
         <v>20170202</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>20170131</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C11" s="11">
         <v>20170201</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G11" s="11">
         <v>20170131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>20170130</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C13" s="10">
         <v>20170131</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G13" s="10">
         <v>20170130</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>20170128</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C15" s="9">
         <v>20170130</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G15" s="9">
         <v>20170129</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>20170112</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C17" s="8">
         <v>20170113</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G17" s="8">
         <v>20170112</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>20170111</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C19" s="7">
         <v>20170112</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G19" s="7">
         <v>20170111</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>20170111</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C21" s="6">
         <v>20170111</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>20170110</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C23" s="5">
         <v>20170111</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G23" s="5">
         <v>20170109</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>20170108</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="4">
-        <v>20170109</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>20170108</v>
-      </c>
-    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>20170108</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>20170109</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>20170108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>20170106</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G27" s="3">
         <v>20170106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>20170105</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2">
-        <v>20170106</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="2">
-        <v>20170105</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,27 +1034,27 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>20170104</v>
+        <v>20170105</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="2">
         <v>20170105</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="2">
-        <v>20170104</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1056,27 +1065,27 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C31" s="2">
+        <v>20170105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G31" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1087,33 +1096,35 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D34" s="2" t="s">
+    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C33" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,29 +1132,29 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B36" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2">
+        <v>20161227</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="1">
-        <v>20161221</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
@@ -1151,24 +1162,27 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B38" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G38" s="1">
+        <v>20161221</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1179,19 +1193,22 @@
     </row>
     <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B40" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B40" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1202,18 +1219,41 @@
     </row>
     <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>20161212</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C44" s="2">
         <v>20161213</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1234,526 +1274,526 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>LogTime</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>The trading plan stopped for a few days, nothing to follow or stick to, a expensive lesson. Now we are at around -15%, given recent warm weather, it's probably good to take advanate of volite to sell on highs and but back at lows, try to limit some losses. Winter is not done yet! 10-15 day forecast shows some cold air coming from the north. Hang in there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With almost -25% down, it's probably not a good time to sell and avoid more losses. NG is just filling the 2.852 gap, weather is turing cold in 10-15 days, with long weekend ahead, a lot of possibilities and probably a change to buy UGAZ at low price, especially the volume of UGAZ spikes! This could be a good opportunity, winter is not over just yet </t>
   </si>
 </sst>
 </file>
@@ -233,10 +236,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -587,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,433 +634,431 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>20170216</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16">
+        <v>20170217</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16">
+        <v>20170216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>20170215</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C5" s="15">
         <v>20170216</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G5" s="15">
         <v>20170215</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>20170206</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C7" s="14">
         <v>20170207</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G7" s="14">
         <v>20170206</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>20170202</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C9" s="13">
         <v>20170203</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G9" s="13">
         <v>20170203</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>20170201</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C11" s="12">
         <v>20170202</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G11" s="12">
         <v>20170202</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>20170131</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C13" s="11">
         <v>20170201</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G13" s="11">
         <v>20170131</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>20170130</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C15" s="10">
         <v>20170131</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G15" s="10">
         <v>20170130</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>20170128</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C17" s="9">
         <v>20170130</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G17" s="9">
         <v>20170129</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>20170112</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C19" s="8">
         <v>20170113</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G19" s="8">
         <v>20170112</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20170111</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C21" s="7">
         <v>20170112</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G21" s="7">
         <v>20170111</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>20170111</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C23" s="6">
         <v>20170111</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>20170110</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C25" s="5">
         <v>20170111</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G25" s="5">
         <v>20170109</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>20170108</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4">
-        <v>20170109</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4">
-        <v>20170108</v>
-      </c>
-    </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <v>20170108</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4">
+        <v>20170109</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
+        <v>20170108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>20170106</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G29" s="3">
         <v>20170106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>20170105</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="2">
-        <v>20170106</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="2">
-        <v>20170105</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,27 +1069,27 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>20170104</v>
+        <v>20170105</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="2">
         <v>20170105</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="2">
-        <v>20170104</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1096,27 +1100,27 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
+        <v>20170105</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G33" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1127,33 +1131,35 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D36" s="2" t="s">
+    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C35" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1161,29 +1167,29 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B38" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2">
+        <v>20161227</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="1">
-        <v>20161221</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
@@ -1191,24 +1197,27 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B40" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G40" s="1">
+        <v>20161221</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1219,19 +1228,22 @@
     </row>
     <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B42" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B42" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1242,18 +1254,41 @@
     </row>
     <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>20161212</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C46" s="2">
         <v>20161213</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1274,526 +1309,526 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>LogTime</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t xml:space="preserve">With almost -25% down, it's probably not a good time to sell and avoid more losses. NG is just filling the 2.852 gap, weather is turing cold in 10-15 days, with long weekend ahead, a lot of possibilities and probably a change to buy UGAZ at low price, especially the volume of UGAZ spikes! This could be a good opportunity, winter is not over just yet </t>
+  </si>
+  <si>
+    <t>Wednesdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With a bearish outlook for Thirsday's report and a very warm weather to cover most of the courty, and east coast in 8-14 forecast, the NG probably has some more down to go. While some rebounces is expected, but only will provide more selling opportunities. And the only chance to reduce losses is to sell and buy back.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Important lesson: don't hold over the long weekend, especially buy at the last minute of Friday's closing point. Be conservertive and be patient! </t>
   </si>
 </sst>
 </file>
@@ -236,10 +245,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -593,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,462 +646,462 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="1">
+        <v>20170221</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="17">
+        <v>20170222</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="17">
+        <v>20170221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>20170216</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C5" s="16">
         <v>20170217</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16">
         <v>20170216</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>20170215</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C7" s="15">
         <v>20170216</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G7" s="15">
         <v>20170215</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>20170206</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C9" s="14">
         <v>20170207</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G9" s="14">
         <v>20170206</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>20170202</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C11" s="13">
         <v>20170203</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G11" s="13">
         <v>20170203</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>20170201</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C13" s="12">
         <v>20170202</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G13" s="12">
         <v>20170202</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>20170131</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C15" s="11">
         <v>20170201</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G15" s="11">
         <v>20170131</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>20170130</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C17" s="10">
         <v>20170131</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G17" s="10">
         <v>20170130</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>20170128</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C19" s="9">
         <v>20170130</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G19" s="9">
         <v>20170129</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20170112</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C21" s="8">
         <v>20170113</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G21" s="8">
         <v>20170112</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>20170111</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C23" s="7">
         <v>20170112</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G23" s="7">
         <v>20170111</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>20170111</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C25" s="6">
         <v>20170111</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>20170110</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C27" s="5">
         <v>20170111</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G27" s="5">
         <v>20170109</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>20170108</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="4">
-        <v>20170109</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4">
-        <v>20170108</v>
-      </c>
-    </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <v>20170108</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="4">
+        <v>20170109</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4">
+        <v>20170108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>20170106</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G31" s="3">
         <v>20170106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>20170105</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2">
-        <v>20170106</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="2">
-        <v>20170105</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,27 +1112,27 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>20170104</v>
+        <v>20170105</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="2">
         <v>20170105</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="2">
-        <v>20170104</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1131,27 +1143,27 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C35" s="2">
+        <v>20170105</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G35" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1162,33 +1174,35 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D38" s="2" t="s">
+    <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C37" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1196,29 +1210,29 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B40" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="2">
+        <v>20161227</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="1">
-        <v>20161221</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
@@ -1226,24 +1240,27 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B42" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G42" s="1">
+        <v>20161221</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1254,19 +1271,22 @@
     </row>
     <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B44" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B44" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1277,18 +1297,41 @@
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>20161212</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C48" s="2">
         <v>20161213</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1309,526 +1352,526 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -206,10 +206,10 @@
     <t>Wednesdy</t>
   </si>
   <si>
-    <t xml:space="preserve">With a bearish outlook for Thirsday's report and a very warm weather to cover most of the courty, and east coast in 8-14 forecast, the NG probably has some more down to go. While some rebounces is expected, but only will provide more selling opportunities. And the only chance to reduce losses is to sell and buy back.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Important lesson: don't hold over the long weekend, especially buy at the last minute of Friday's closing point. Be conservertive and be patient! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">With a bearish outlook for Thirsday's report and a very warm weather to cover most of the courty, and east coast in 8-14 forecast, the NG probably has some more down to go. While some rebounces is expected, but only will provide more selling opportunities. And the only chance to reduce losses is to sell and buy back.  Some expects Thursday's report to show -93, some to expect a -140, not sure which one is correct but last week seems much warmer than the week before. Our only friend right now, is patience and the cold air coming from the west </t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +653,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20170221</v>
       </c>
@@ -667,10 +667,10 @@
         <v>58</v>
       </c>
       <c r="E3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>60</v>
       </c>
       <c r="G3" s="17">
         <v>20170221</v>

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>LogTime</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t xml:space="preserve">With a bearish outlook for Thirsday's report and a very warm weather to cover most of the courty, and east coast in 8-14 forecast, the NG probably has some more down to go. While some rebounces is expected, but only will provide more selling opportunities. And the only chance to reduce losses is to sell and buy back.  Some expects Thursday's report to show -93, some to expect a -140, not sure which one is correct but last week seems much warmer than the week before. Our only friend right now, is patience and the cold air coming from the west </t>
+  </si>
+  <si>
+    <t>The 3 major NG supportive price is 2.645, 2.700 and 2.750. After Monday's &gt;3% gap down, NG bounce above 2.75 due to short recover and technical correction of oversold, and to find new sellers as winter will be officially ending in 3 weeks, with warmer than normal cross most of US continent. Rally continued Tuesday and Wednesday and find a little bit resistence at 2.8 but buying seems to be strong. For tomorrow, EIA is expected to report -5 withdraw as of last Friday, and remember last Monday was President's day, and last week was very warm, -5 could trigger some sellings but it might be already priced in. With some cold weather coming this weekend and next week, UGAZ is a better choice at this moment and hold throught the weekend. Thus, find a chance to sell all DGAZ before 1030 tomorrow, and find a good price to get back into UGAZ. The NG would likely to broke down 2.75 by the tomorrow, but breaking or approaching 2.7 would be a good UGAZ buy-in point. Good luck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to last week's exetremly weather and Federal Holiday Monday, the super low (-5) expectation of the report should be priced at the opening of Sunday night, it's really a terrible idea to hold UGAZ full position over the weekend. Big Lesson! Also, we learnt that the opening price of Sunday niht will largely depend on the prediction of the storage injection/withdraw on the last Friday, very valuable leson! </t>
   </si>
 </sst>
 </file>
@@ -245,10 +251,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -605,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -646,493 +655,493 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>20170301</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="18">
+        <v>20170302</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="18">
+        <v>20170301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>20170221</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C5" s="17">
         <v>20170222</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G5" s="17">
         <v>20170221</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>20170216</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C7" s="16">
         <v>20170217</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16">
         <v>20170216</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>20170215</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C9" s="15">
         <v>20170216</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G9" s="15">
         <v>20170215</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>20170206</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C11" s="14">
         <v>20170207</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G11" s="14">
         <v>20170206</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>20170202</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C13" s="13">
         <v>20170203</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G13" s="13">
         <v>20170203</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>20170201</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C15" s="12">
         <v>20170202</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G15" s="12">
         <v>20170202</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>20170131</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C17" s="11">
         <v>20170201</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G17" s="11">
         <v>20170131</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>20170130</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C19" s="10">
         <v>20170131</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G19" s="10">
         <v>20170130</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20170128</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C21" s="9">
         <v>20170130</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G21" s="9">
         <v>20170129</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>20170112</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C23" s="8">
         <v>20170113</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G23" s="8">
         <v>20170112</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>20170111</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C25" s="7">
         <v>20170112</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G25" s="7">
         <v>20170111</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>20170111</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C27" s="6">
         <v>20170111</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>20170110</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C29" s="5">
         <v>20170111</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G29" s="5">
         <v>20170109</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>20170108</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="4">
-        <v>20170109</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4">
-        <v>20170108</v>
-      </c>
-    </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <v>20170108</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4">
+        <v>20170109</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4">
+        <v>20170108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>20170106</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G33" s="3">
         <v>20170106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>20170105</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="2">
-        <v>20170106</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="2">
-        <v>20170105</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1143,27 +1152,27 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>20170104</v>
+        <v>20170105</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="2">
         <v>20170105</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="2">
-        <v>20170104</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1174,27 +1183,27 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C37" s="2">
+        <v>20170105</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G37" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1205,33 +1214,35 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D40" s="2" t="s">
+    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C39" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1239,29 +1250,29 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B42" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="2">
+        <v>20161227</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="1">
-        <v>20161221</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
@@ -1269,24 +1280,27 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B44" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G44" s="1">
+        <v>20161221</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1297,19 +1311,22 @@
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B46" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B46" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1320,18 +1337,41 @@
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>20161212</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C50" s="2">
         <v>20161213</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1352,526 +1392,526 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NaturalGas/UGAZ and DGAZ.xlsx
+++ b/NaturalGas/UGAZ and DGAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>LogTime</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t xml:space="preserve">Due to last week's exetremly weather and Federal Holiday Monday, the super low (-5) expectation of the report should be priced at the opening of Sunday night, it's really a terrible idea to hold UGAZ full position over the weekend. Big Lesson! Also, we learnt that the opening price of Sunday niht will largely depend on the prediction of the storage injection/withdraw on the last Friday, very valuable leson! </t>
+  </si>
+  <si>
+    <t>Should be conservative, not greedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG price rises for the third consective day while I can feel strong support at 2.780 but also quite a resistence at 2.820, this is a very narrow area. Today's report show 7 injections, compared to the predicted -5, this is bearish but NG price didn't tank, which indicates NG is rising higher to seek for new buyers. There might be another chance to get rid of DGAZ around 6.15 or above, take it. It might be good to hold UGAZ over the weekend </t>
   </si>
 </sst>
 </file>
@@ -251,10 +257,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -614,9 +623,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -655,524 +664,524 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>20170302</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="19">
+        <v>20170303</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="19">
+        <v>20170302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>20170301</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C5" s="18">
         <v>20170302</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G5" s="18">
         <v>20170301</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>20170221</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C7" s="17">
         <v>20170222</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G7" s="17">
         <v>20170221</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>20170216</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C9" s="16">
         <v>20170217</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16">
         <v>20170216</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>20170215</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C11" s="15">
         <v>20170216</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G11" s="15">
         <v>20170215</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>20170206</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C13" s="14">
         <v>20170207</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G13" s="14">
         <v>20170206</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>20170202</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C15" s="13">
         <v>20170203</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G15" s="13">
         <v>20170203</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>20170201</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C17" s="12">
         <v>20170202</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G17" s="12">
         <v>20170202</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>20170131</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C19" s="11">
         <v>20170201</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G19" s="11">
         <v>20170131</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20170130</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C21" s="10">
         <v>20170131</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G21" s="10">
         <v>20170130</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>20170128</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C23" s="9">
         <v>20170130</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G23" s="9">
         <v>20170129</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>20170112</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C25" s="8">
         <v>20170113</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G25" s="8">
         <v>20170112</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>20170111</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C27" s="7">
         <v>20170112</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G27" s="7">
         <v>20170111</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>20170111</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C29" s="6">
         <v>20170111</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>20170110</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C31" s="5">
         <v>20170111</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G31" s="5">
         <v>20170109</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>20170108</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="4">
-        <v>20170109</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4">
-        <v>20170108</v>
-      </c>
-    </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <v>20170108</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4">
+        <v>20170109</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4">
+        <v>20170108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>20170106</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G35" s="3">
         <v>20170106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>20170105</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2">
-        <v>20170106</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="2">
-        <v>20170105</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1183,27 +1192,27 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>20170104</v>
+        <v>20170105</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C37" s="2">
+        <v>20170106</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="2">
         <v>20170105</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="2">
-        <v>20170104</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1214,27 +1223,27 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>20170103</v>
+        <v>20170104</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="1">
-        <v>20170103</v>
+        <v>9</v>
+      </c>
+      <c r="C39" s="2">
+        <v>20170105</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G39" s="2">
+        <v>20170104</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1245,33 +1254,35 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>20161226</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="2">
-        <v>20161227</v>
-      </c>
-      <c r="D42" s="2" t="s">
+    <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C41" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1279,29 +1290,29 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>20161221</v>
-      </c>
-      <c r="B44" s="2">
-        <v>20161221</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>20161226</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="2">
+        <v>20161227</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="1">
-        <v>20161221</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
@@ -1309,24 +1320,27 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="B46" s="2">
-        <v>20161220</v>
+        <v>20161221</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G46" s="1">
+        <v>20161221</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1337,19 +1351,22 @@
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>20161213</v>
-      </c>
-      <c r="B48" s="2" t="s">
+        <v>20161220</v>
+      </c>
+      <c r="B48" s="2">
+        <v>20161220</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="2">
-        <v>20161214</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1360,18 +1377,41 @@
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
+        <v>20161213</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="2">
+        <v>20161214</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>20161212</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C52" s="2">
         <v>20161213</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1392,526 +1432,526 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
